--- a/Data/EC/NIT-8000989838.xlsx
+++ b/Data/EC/NIT-8000989838.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4859FBC-C339-4D72-8F94-92D45B74E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C1D9A6-03BD-4BF0-83E3-DCD1F7DA29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24B3E407-5B03-4F13-A5EB-6AEF345F4DD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C1C33640-C5D7-4553-B846-D7F085211EDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="126">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,22 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8854664</t>
+  </si>
+  <si>
+    <t>JAVIER NIETO CASTELLAR</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>73137267</t>
   </si>
   <si>
     <t>CARLOS EDUARDO LOPEZ CONTRERAS</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>8854664</t>
-  </si>
-  <si>
-    <t>JAVIER NIETO CASTELLAR</t>
-  </si>
-  <si>
-    <t>1905</t>
+    <t>73204484</t>
+  </si>
+  <si>
+    <t>EDGARDO BUENDIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>73144254</t>
+  </si>
+  <si>
+    <t>VENANCIO NICOLAS ROMERO ANGULO</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1044932540</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER REALES ALTAMAR</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
   </si>
   <si>
     <t>1048324049</t>
@@ -89,10 +179,16 @@
     <t>WILLIAM ANTONIO CERVANTES HERNANDEZ</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1907</t>
   </si>
   <si>
-    <t>1908</t>
+    <t>32855491</t>
+  </si>
+  <si>
+    <t>KAREN MARGARITA ACUÑA NAVARRO</t>
   </si>
   <si>
     <t>7461664</t>
@@ -101,7 +197,154 @@
     <t>MAXIMO ENRIQUE ORTIZ MUÑOZ</t>
   </si>
   <si>
-    <t>1909</t>
+    <t>11000894</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL MONSALVE LOPEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>8777050</t>
+  </si>
+  <si>
+    <t>LUIS MANUEL CONTRERAS GREY</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>91351243</t>
@@ -110,82 +353,10 @@
     <t>CRISTIAN YESID AREVALO SALAZAR</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>8777050</t>
-  </si>
-  <si>
-    <t>LUIS MANUEL CONTRERAS GREY</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
+    <t>1110539702</t>
+  </si>
+  <si>
+    <t>JESSICA PAOLA CALDERON CUELLAR</t>
   </si>
   <si>
     <t>52532897</t>
@@ -194,148 +365,22 @@
     <t>ANA PAOLA VALENZUELA MONTES</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
     <t>73144524</t>
   </si>
   <si>
     <t>VENANCIO ROMERO ANGULO</t>
   </si>
   <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
     <t>1073326010</t>
   </si>
   <si>
     <t>ALBEIRO ERNESTO ROCHA CAÃ?AS</t>
   </si>
   <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1082908005</t>
+  </si>
+  <si>
+    <t>SERGIO LUIS FONTALVO OBREGON</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -749,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD090545-747F-7AF3-88B7-1FF805DA06FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5691795E-C108-F14B-BBB8-0940EAB53029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,8 +1145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B276BF-7925-4A39-9348-5BE66CCA5E06}">
-  <dimension ref="B2:J212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939C2206-5415-4C90-A240-3BDA716A43C0}">
+  <dimension ref="B2:J304"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1125,7 +1170,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1170,7 +1215,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1202,12 +1247,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8908210</v>
+        <v>12849595</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1218,17 +1263,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F13" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1255,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1281,7 +1326,7 @@
         <v>36000</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1292,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36000</v>
@@ -1315,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>36000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1177749</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1338,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>1177749</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1370,10 +1415,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>17084</v>
+        <v>38086</v>
       </c>
       <c r="G20" s="18">
-        <v>915200</v>
+        <v>1400000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1393,10 +1438,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>36608</v>
+        <v>39400</v>
       </c>
       <c r="G21" s="18">
-        <v>915200</v>
+        <v>1400000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1407,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F22" s="18">
-        <v>35200</v>
+        <v>39400</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1436,13 +1481,13 @@
         <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>36608</v>
+        <v>39400</v>
       </c>
       <c r="G23" s="18">
-        <v>915200</v>
+        <v>1400000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1453,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>56000</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1482,13 +1527,13 @@
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>36608</v>
+        <v>39400</v>
       </c>
       <c r="G25" s="18">
-        <v>915200</v>
+        <v>1400000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1499,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F26" s="18">
-        <v>56000</v>
+        <v>39400</v>
       </c>
       <c r="G26" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1528,13 +1573,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>26846</v>
+        <v>39400</v>
       </c>
       <c r="G27" s="18">
-        <v>915200</v>
+        <v>1400000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1545,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G28" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1568,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F29" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G29" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1591,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F30" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G30" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1614,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>62899</v>
+        <v>39400</v>
       </c>
       <c r="G31" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1637,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G32" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1660,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>62899</v>
+        <v>39400</v>
       </c>
       <c r="G33" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1683,19 +1728,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G34" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1706,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>62899</v>
+        <v>39400</v>
       </c>
       <c r="G35" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1729,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G36" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1752,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>62899</v>
+        <v>39400</v>
       </c>
       <c r="G37" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1775,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>62899</v>
+        <v>39400</v>
       </c>
       <c r="G38" s="18">
-        <v>1572491</v>
+        <v>1400000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1798,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>36000</v>
+        <v>39400</v>
       </c>
       <c r="G39" s="18">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1821,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>36000</v>
+        <v>56940</v>
       </c>
       <c r="G40" s="18">
-        <v>900000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1844,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1867,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1890,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
         <v>36000</v>
@@ -1913,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F44" s="18">
-        <v>62899</v>
+        <v>26846</v>
       </c>
       <c r="G44" s="18">
-        <v>1572491</v>
+        <v>915200</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1936,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>36000</v>
+        <v>36608</v>
       </c>
       <c r="G45" s="18">
-        <v>900000</v>
+        <v>915200</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1959,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>36000</v>
+        <v>36608</v>
       </c>
       <c r="G46" s="18">
-        <v>900000</v>
+        <v>915200</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1982,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>62899</v>
+        <v>36608</v>
       </c>
       <c r="G47" s="18">
-        <v>1572491</v>
+        <v>915200</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2005,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
-        <v>36000</v>
+        <v>17084</v>
       </c>
       <c r="G48" s="18">
-        <v>900000</v>
+        <v>915200</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2028,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>62899</v>
+        <v>88000</v>
       </c>
       <c r="G49" s="18">
-        <v>1572491</v>
+        <v>2200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2051,19 +2096,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F50" s="18">
-        <v>62899</v>
+        <v>35200</v>
       </c>
       <c r="G50" s="18">
-        <v>1572491</v>
+        <v>1200000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2074,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G51" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2097,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G52" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2120,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G53" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2143,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F54" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G54" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2166,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F55" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G55" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2189,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G56" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2212,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F57" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G57" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2235,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F58" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G58" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2258,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F59" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G59" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2281,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F60" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G60" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2304,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F61" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G61" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2327,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F62" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2350,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F63" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G63" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2373,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F64" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G64" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2396,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F65" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G65" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2419,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F66" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G66" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2442,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F67" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G67" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2465,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F68" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G68" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2488,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F69" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G69" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2511,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F70" s="18">
-        <v>21400</v>
+        <v>38160</v>
       </c>
       <c r="G70" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2534,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F71" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G71" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2557,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F72" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G72" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2580,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F73" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G73" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2603,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F74" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G74" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2626,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F75" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G75" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2649,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F76" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G76" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2672,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F77" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G77" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2695,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F78" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G78" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2718,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F79" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G79" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2741,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F80" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G80" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2764,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F81" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G81" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2787,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F82" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G82" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2810,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F83" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G83" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2833,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F84" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G84" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2856,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F85" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G85" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2879,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F86" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G86" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2902,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F87" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G87" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2925,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F88" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G88" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2948,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F89" s="18">
-        <v>47200</v>
+        <v>38160</v>
       </c>
       <c r="G89" s="18">
-        <v>1180000</v>
+        <v>954000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2971,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F90" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G90" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2994,19 +3039,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F91" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G91" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3017,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F92" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G92" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3040,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F93" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G93" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3063,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F94" s="18">
-        <v>47200</v>
+        <v>38160</v>
       </c>
       <c r="G94" s="18">
-        <v>1180000</v>
+        <v>954000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3086,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F95" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G95" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3109,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F96" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G96" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3132,19 +3177,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F97" s="18">
-        <v>47200</v>
+        <v>38160</v>
       </c>
       <c r="G97" s="18">
-        <v>1180000</v>
+        <v>954000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3155,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F98" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G98" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3178,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F99" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G99" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3201,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F100" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G100" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3224,19 +3269,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F101" s="18">
-        <v>28320</v>
+        <v>38160</v>
       </c>
       <c r="G101" s="18">
-        <v>1180000</v>
+        <v>954000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3247,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F102" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G102" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3270,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F103" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G103" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3293,19 +3338,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F104" s="18">
-        <v>62899</v>
+        <v>38160</v>
       </c>
       <c r="G104" s="18">
-        <v>1572491</v>
+        <v>954000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3316,19 +3361,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F105" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G105" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3339,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F106" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G106" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3362,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F107" s="18">
-        <v>42800</v>
+        <v>38160</v>
       </c>
       <c r="G107" s="18">
-        <v>1070000</v>
+        <v>954000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3385,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F108" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G108" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3408,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F109" s="18">
         <v>36000</v>
@@ -3431,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F110" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G110" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3454,13 +3499,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F111" s="18">
         <v>36000</v>
@@ -3477,19 +3522,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F112" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G112" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3500,19 +3545,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F113" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G113" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3523,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F114" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G114" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3546,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F115" s="18">
         <v>36000</v>
@@ -3569,19 +3614,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F116" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G116" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3592,19 +3637,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G117" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3615,13 +3660,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F118" s="18">
         <v>36000</v>
@@ -3638,13 +3683,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F119" s="18">
         <v>36000</v>
@@ -3661,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G120" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3684,19 +3729,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F121" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G121" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3707,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F122" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G122" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3730,19 +3775,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F123" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G123" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3753,10 +3798,10 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>70</v>
@@ -3776,10 +3821,10 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>71</v>
@@ -3799,19 +3844,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F126" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G126" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3822,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F127" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G127" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3845,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F128" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G128" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3868,19 +3913,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F129" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G129" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3891,13 +3936,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F130" s="18">
         <v>36000</v>
@@ -3914,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F131" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G131" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3937,19 +3982,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F132" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G132" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3960,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F133" s="18">
         <v>36000</v>
@@ -3983,13 +4028,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F134" s="18">
         <v>36000</v>
@@ -4006,19 +4051,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F135" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G135" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4029,19 +4074,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F136" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G136" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4052,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F137" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G137" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4075,13 +4120,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F138" s="18">
         <v>36000</v>
@@ -4098,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F139" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G139" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4121,19 +4166,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F140" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G140" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4144,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F141" s="18">
         <v>36000</v>
@@ -4167,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D142" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E142" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F142" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G142" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4190,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F143" s="18">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="G143" s="18">
-        <v>1250000</v>
+        <v>900000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4213,19 +4258,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F144" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G144" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4236,19 +4281,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F145" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G145" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4259,13 +4304,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D146" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F146" s="18">
         <v>36000</v>
@@ -4282,13 +4327,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F147" s="18">
         <v>36000</v>
@@ -4305,19 +4350,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F148" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G148" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4328,19 +4373,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F149" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G149" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4351,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="F150" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G150" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4374,13 +4419,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F151" s="18">
         <v>36000</v>
@@ -4397,19 +4442,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F152" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G152" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4420,13 +4465,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F153" s="18">
         <v>36000</v>
@@ -4443,19 +4488,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F154" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G154" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4466,19 +4511,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F155" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G155" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4489,19 +4534,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F156" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G156" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4512,10 +4557,10 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E157" s="16" t="s">
         <v>83</v>
@@ -4535,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F158" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G158" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4558,13 +4603,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F159" s="18">
         <v>36000</v>
@@ -4581,19 +4626,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F160" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G160" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4604,19 +4649,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F161" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G161" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4627,19 +4672,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F162" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G162" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4650,19 +4695,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F163" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G163" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4673,13 +4718,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F164" s="18">
         <v>36000</v>
@@ -4696,19 +4741,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F165" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G165" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4719,13 +4764,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F166" s="18">
         <v>36000</v>
@@ -4742,19 +4787,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F167" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G167" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4765,19 +4810,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F168" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G168" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4788,13 +4833,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F169" s="18">
         <v>36000</v>
@@ -4811,19 +4856,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F170" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G170" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4834,19 +4879,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F171" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G171" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4857,13 +4902,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F172" s="18">
         <v>36000</v>
@@ -4880,19 +4925,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F173" s="18">
-        <v>62899</v>
+        <v>36000</v>
       </c>
       <c r="G173" s="18">
-        <v>1572491</v>
+        <v>900000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4903,19 +4948,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F174" s="18">
-        <v>42800</v>
+        <v>36000</v>
       </c>
       <c r="G174" s="18">
-        <v>1070000</v>
+        <v>900000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4926,19 +4971,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F175" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G175" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4949,13 +4994,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F176" s="18">
         <v>62899</v>
@@ -4972,19 +5017,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F177" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G177" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4995,19 +5040,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F178" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G178" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5018,13 +5063,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F179" s="18">
         <v>62899</v>
@@ -5041,19 +5086,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F180" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G180" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5064,13 +5109,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F181" s="18">
         <v>62899</v>
@@ -5087,19 +5132,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F182" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G182" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5110,19 +5155,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F183" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G183" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5133,19 +5178,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F184" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G184" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5156,13 +5201,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F185" s="18">
         <v>62899</v>
@@ -5179,19 +5224,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F186" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G186" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5202,13 +5247,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F187" s="18">
         <v>62899</v>
@@ -5225,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F188" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G188" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5248,19 +5293,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F189" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G189" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5271,13 +5316,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F190" s="18">
         <v>62899</v>
@@ -5294,19 +5339,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F191" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G191" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5317,19 +5362,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F192" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G192" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5340,19 +5385,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F193" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G193" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5363,13 +5408,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F194" s="18">
         <v>62899</v>
@@ -5386,19 +5431,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F195" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G195" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5409,13 +5454,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F196" s="18">
         <v>62899</v>
@@ -5432,19 +5477,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F197" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G197" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5455,13 +5500,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F198" s="18">
         <v>62899</v>
@@ -5478,19 +5523,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F199" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G199" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5501,19 +5546,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F200" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G200" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5524,13 +5569,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F201" s="18">
         <v>62899</v>
@@ -5547,19 +5592,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F202" s="18">
-        <v>42800</v>
+        <v>62899</v>
       </c>
       <c r="G202" s="18">
-        <v>1070000</v>
+        <v>1572491</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5570,19 +5615,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="F203" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G203" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5593,13 +5638,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F204" s="18">
         <v>62899</v>
@@ -5616,75 +5661,2191 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="F205" s="18">
-        <v>36000</v>
+        <v>62899</v>
       </c>
       <c r="G205" s="18">
-        <v>900000</v>
+        <v>1572491</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
       <c r="J205" s="20"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E206" s="22" t="s">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G206" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G207" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G208" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G209" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G210" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G211" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G212" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G213" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G214" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F215" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G215" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G216" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G217" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F218" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G218" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F219" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G219" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G220" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G221" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F222" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G222" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F223" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G223" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F224" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G224" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F225" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G225" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F226" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G226" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F227" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G227" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="20"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F228" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G228" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="20"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B229" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F229" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G229" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="20"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F230" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G230" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="20"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F231" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G231" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H231" s="19"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="20"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B232" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F232" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G232" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="20"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B233" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F233" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G233" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F234" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G234" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F235" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G235" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F236" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G236" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F237" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G237" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="20"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E238" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F206" s="24">
+      <c r="F238" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G238" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B239" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F239" s="18">
+        <v>62899</v>
+      </c>
+      <c r="G239" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="20"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F240" s="18">
+        <v>56000</v>
+      </c>
+      <c r="G240" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" s="18">
+        <v>56000</v>
+      </c>
+      <c r="G241" s="18">
+        <v>1572491</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F242" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G242" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F243" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G243" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F244" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G244" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G245" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G246" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G247" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F248" s="18">
         <v>42800</v>
       </c>
-      <c r="G206" s="24">
+      <c r="G248" s="18">
         <v>1070000</v>
       </c>
-      <c r="H206" s="25"/>
-      <c r="I206" s="25"/>
-      <c r="J206" s="26"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="32" t="s">
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F249" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G249" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F250" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G250" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F251" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G251" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F252" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G252" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F253" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G253" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F254" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G254" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F255" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G255" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F256" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G256" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H256" s="19"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F257" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G257" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F258" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G258" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F259" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G259" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F260" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G260" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F261" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G261" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F262" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G262" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H262" s="19"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F263" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G263" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H263" s="19"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F264" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G264" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H264" s="19"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="20"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B265" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F265" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G265" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H265" s="19"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B266" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F266" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G266" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H266" s="19"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="20"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B267" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F267" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G267" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H267" s="19"/>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F268" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G268" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H268" s="19"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F269" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G269" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H269" s="19"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F270" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G270" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H270" s="19"/>
+      <c r="I270" s="19"/>
+      <c r="J270" s="20"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B271" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F271" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G271" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H271" s="19"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="20"/>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B272" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D272" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F272" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G272" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H272" s="19"/>
+      <c r="I272" s="19"/>
+      <c r="J272" s="20"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B273" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F273" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G273" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H273" s="19"/>
+      <c r="I273" s="19"/>
+      <c r="J273" s="20"/>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B274" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F274" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G274" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H274" s="19"/>
+      <c r="I274" s="19"/>
+      <c r="J274" s="20"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B275" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F275" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G275" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H275" s="19"/>
+      <c r="I275" s="19"/>
+      <c r="J275" s="20"/>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B276" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G276" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H276" s="19"/>
+      <c r="I276" s="19"/>
+      <c r="J276" s="20"/>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B277" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F277" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G277" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H277" s="19"/>
+      <c r="I277" s="19"/>
+      <c r="J277" s="20"/>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B278" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G278" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H278" s="19"/>
+      <c r="I278" s="19"/>
+      <c r="J278" s="20"/>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B279" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F279" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G279" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H279" s="19"/>
+      <c r="I279" s="19"/>
+      <c r="J279" s="20"/>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B280" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F280" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G280" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H280" s="19"/>
+      <c r="I280" s="19"/>
+      <c r="J280" s="20"/>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B281" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G281" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H281" s="19"/>
+      <c r="I281" s="19"/>
+      <c r="J281" s="20"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B282" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F282" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G282" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H282" s="19"/>
+      <c r="I282" s="19"/>
+      <c r="J282" s="20"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B283" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F283" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G283" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H283" s="19"/>
+      <c r="I283" s="19"/>
+      <c r="J283" s="20"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B284" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G284" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H284" s="19"/>
+      <c r="I284" s="19"/>
+      <c r="J284" s="20"/>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B285" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F285" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G285" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H285" s="19"/>
+      <c r="I285" s="19"/>
+      <c r="J285" s="20"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B286" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F286" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G286" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H286" s="19"/>
+      <c r="I286" s="19"/>
+      <c r="J286" s="20"/>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B287" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F287" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G287" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H287" s="19"/>
+      <c r="I287" s="19"/>
+      <c r="J287" s="20"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B288" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F288" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G288" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H288" s="19"/>
+      <c r="I288" s="19"/>
+      <c r="J288" s="20"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B289" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G289" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H289" s="19"/>
+      <c r="I289" s="19"/>
+      <c r="J289" s="20"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B290" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F290" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G290" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H290" s="19"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="20"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B291" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F291" s="18">
+        <v>42800</v>
+      </c>
+      <c r="G291" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H291" s="19"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="20"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B292" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292" s="18">
+        <v>21400</v>
+      </c>
+      <c r="G292" s="18">
+        <v>1070000</v>
+      </c>
+      <c r="H292" s="19"/>
+      <c r="I292" s="19"/>
+      <c r="J292" s="20"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B293" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C211" s="32"/>
-      <c r="H211" s="1" t="s">
+      <c r="D293" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F293" s="18">
+        <v>28320</v>
+      </c>
+      <c r="G293" s="18">
+        <v>1180000</v>
+      </c>
+      <c r="H293" s="19"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B294" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C212" s="32"/>
-      <c r="H212" s="1" t="s">
+      <c r="D294" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="E294" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="18">
+        <v>47200</v>
+      </c>
+      <c r="G294" s="18">
+        <v>1180000</v>
+      </c>
+      <c r="H294" s="19"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="20"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B295" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F295" s="18">
+        <v>47200</v>
+      </c>
+      <c r="G295" s="18">
+        <v>1180000</v>
+      </c>
+      <c r="H295" s="19"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="20"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B296" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F296" s="18">
+        <v>47200</v>
+      </c>
+      <c r="G296" s="18">
+        <v>1180000</v>
+      </c>
+      <c r="H296" s="19"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="20"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B297" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F297" s="18">
+        <v>30000</v>
+      </c>
+      <c r="G297" s="18">
+        <v>1250000</v>
+      </c>
+      <c r="H297" s="19"/>
+      <c r="I297" s="19"/>
+      <c r="J297" s="20"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B298" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F298" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G298" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H298" s="25"/>
+      <c r="I298" s="25"/>
+      <c r="J298" s="26"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B303" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C303" s="32"/>
+      <c r="H303" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B304" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C304" s="32"/>
+      <c r="H304" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="H212:J212"/>
-    <mergeCell ref="H211:J211"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="H304:J304"/>
+    <mergeCell ref="H303:J303"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
